--- a/GBDS JANUARY FILES 2026/PURCHASES - JANUARY 2026.xlsx
+++ b/GBDS JANUARY FILES 2026/PURCHASES - JANUARY 2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS JANUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2954FF-B3F2-42F5-9D03-DEC398D4D9DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCF56EA-0565-4001-A45B-B2DA3107BC38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2350,7 +2350,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="19">
-        <v>45658</v>
+        <v>45870</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>68</v>
@@ -2360,23 +2360,26 @@
         <v>70</v>
       </c>
       <c r="G7" s="20">
-        <v>518184389</v>
+        <v>518277942</v>
       </c>
       <c r="H7" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I7" s="21"/>
+      <c r="I7" s="21">
+        <f>1353132-56255.04</f>
+        <v>1296876.96</v>
+      </c>
       <c r="K7" s="21">
         <f>M7*12</f>
-        <v>0</v>
+        <v>138951.10285714286</v>
       </c>
       <c r="L7" s="27">
         <f>I7-K7</f>
-        <v>0</v>
+        <v>1157925.857142857</v>
       </c>
       <c r="M7" s="33">
         <f>I7/112</f>
-        <v>0</v>
+        <v>11579.258571428571</v>
       </c>
       <c r="N7" s="26"/>
       <c r="O7" s="26"/>
@@ -3109,19 +3112,19 @@
       <c r="G32"/>
       <c r="I32" s="14">
         <f>SUM(I7:I31)</f>
-        <v>0</v>
+        <v>1296876.96</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>0</v>
+        <v>138951.10285714286</v>
       </c>
       <c r="L32" s="14">
         <f>SUM(L7:L31)</f>
-        <v>0</v>
+        <v>1157925.857142857</v>
       </c>
       <c r="M32" s="36">
         <f>SUM(M7:M31)</f>
-        <v>0</v>
+        <v>11579.258571428571</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">

--- a/GBDS JANUARY FILES 2026/PURCHASES - JANUARY 2026.xlsx
+++ b/GBDS JANUARY FILES 2026/PURCHASES - JANUARY 2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS JANUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCF56EA-0565-4001-A45B-B2DA3107BC38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525E89DE-EE86-48D0-ACFE-4E44C09667F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2214,7 +2214,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2350,7 +2350,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="19">
-        <v>45870</v>
+        <v>46235</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>68</v>
@@ -2393,7 +2393,9 @@
         <f>B7+1</f>
         <v>2</v>
       </c>
-      <c r="C8" s="19"/>
+      <c r="C8" s="19">
+        <v>46266</v>
+      </c>
       <c r="D8" s="20" t="s">
         <v>68</v>
       </c>
@@ -2401,22 +2403,27 @@
       <c r="F8" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="20"/>
+      <c r="G8" s="20">
+        <v>518280920</v>
+      </c>
       <c r="H8" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I8" s="21"/>
+      <c r="I8" s="21">
+        <f>1353132-56255.04</f>
+        <v>1296876.96</v>
+      </c>
       <c r="K8" s="21">
         <f>M8*12</f>
-        <v>0</v>
+        <v>138951.10285714286</v>
       </c>
       <c r="L8" s="27">
         <f>I8-K8</f>
-        <v>0</v>
+        <v>1157925.857142857</v>
       </c>
       <c r="M8" s="33">
         <f t="shared" ref="M8:M26" si="0">I8/112</f>
-        <v>0</v>
+        <v>11579.258571428571</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -2428,7 +2435,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C9" s="19"/>
+      <c r="C9" s="19">
+        <v>46266</v>
+      </c>
       <c r="D9" s="20" t="s">
         <v>68</v>
       </c>
@@ -2436,22 +2445,27 @@
       <c r="F9" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G9" s="20"/>
+      <c r="G9" s="20">
+        <v>518281307</v>
+      </c>
       <c r="H9" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="21"/>
+      <c r="I9" s="21">
+        <f>543906-22612.32</f>
+        <v>521293.68</v>
+      </c>
       <c r="K9" s="21">
         <f t="shared" ref="K9:K26" si="2">M9*12</f>
-        <v>0</v>
+        <v>55852.894285714283</v>
       </c>
       <c r="L9" s="27">
         <f t="shared" ref="L9:L26" si="3">I9-K9</f>
-        <v>0</v>
+        <v>465440.78571428568</v>
       </c>
       <c r="M9" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4654.4078571428572</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -3112,19 +3126,19 @@
       <c r="G32"/>
       <c r="I32" s="14">
         <f>SUM(I7:I31)</f>
-        <v>1296876.96</v>
+        <v>3115047.6</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>138951.10285714286</v>
+        <v>333755.09999999998</v>
       </c>
       <c r="L32" s="14">
         <f>SUM(L7:L31)</f>
-        <v>1157925.857142857</v>
+        <v>2781292.5</v>
       </c>
       <c r="M32" s="36">
         <f>SUM(M7:M31)</f>
-        <v>11579.258571428571</v>
+        <v>27812.924999999999</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">

--- a/GBDS JANUARY FILES 2026/PURCHASES - JANUARY 2026.xlsx
+++ b/GBDS JANUARY FILES 2026/PURCHASES - JANUARY 2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS JANUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525E89DE-EE86-48D0-ACFE-4E44C09667F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C28495-39D0-435A-8C28-9470C8ABB52F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="77">
   <si>
     <t>HOME MART ENTERPRISES</t>
   </si>
@@ -260,7 +260,10 @@
     <t>166-562-025-0000</t>
   </si>
   <si>
-    <t>JANUARY 2025</t>
+    <t>01/20/2026</t>
+  </si>
+  <si>
+    <t>JANUARY 2026</t>
   </si>
 </sst>
 </file>
@@ -2214,7 +2217,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2268,7 +2271,7 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -2477,7 +2480,9 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C10" s="19"/>
+      <c r="C10" s="19" t="s">
+        <v>75</v>
+      </c>
       <c r="D10" s="20" t="s">
         <v>68</v>
       </c>
@@ -2485,22 +2490,27 @@
       <c r="F10" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="20"/>
+      <c r="G10" s="20">
+        <v>518308507</v>
+      </c>
       <c r="H10" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I10" s="21"/>
+      <c r="I10" s="21">
+        <f>1397196-56255.04</f>
+        <v>1340940.96</v>
+      </c>
       <c r="K10" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>143672.2457142857</v>
       </c>
       <c r="L10" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1197268.7142857143</v>
       </c>
       <c r="M10" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11972.687142857143</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -3126,19 +3136,19 @@
       <c r="G32"/>
       <c r="I32" s="14">
         <f>SUM(I7:I31)</f>
-        <v>3115047.6</v>
+        <v>4455988.5600000005</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>333755.09999999998</v>
+        <v>477427.34571428568</v>
       </c>
       <c r="L32" s="14">
         <f>SUM(L7:L31)</f>
-        <v>2781292.5</v>
+        <v>3978561.2142857146</v>
       </c>
       <c r="M32" s="36">
         <f>SUM(M7:M31)</f>
-        <v>27812.924999999999</v>
+        <v>39785.612142857142</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -3177,7 +3187,7 @@
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>

--- a/GBDS JANUARY FILES 2026/PURCHASES - JANUARY 2026.xlsx
+++ b/GBDS JANUARY FILES 2026/PURCHASES - JANUARY 2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS JANUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C28495-39D0-435A-8C28-9470C8ABB52F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86AD7330-8982-4B4A-AD7C-B2207FF6FF52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="78">
   <si>
     <t>HOME MART ENTERPRISES</t>
   </si>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t>JANUARY 2026</t>
+  </si>
+  <si>
+    <t>01/24/2026</t>
   </si>
 </sst>
 </file>
@@ -2217,7 +2220,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2522,7 +2525,9 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C11" s="19"/>
+      <c r="C11" s="19" t="s">
+        <v>77</v>
+      </c>
       <c r="D11" s="20" t="s">
         <v>68</v>
       </c>
@@ -2530,22 +2535,27 @@
       <c r="F11" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="20"/>
+      <c r="G11" s="20">
+        <v>518322741</v>
+      </c>
       <c r="H11" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I11" s="21"/>
+      <c r="I11" s="21">
+        <f>1306428-51028.68</f>
+        <v>1255399.32</v>
+      </c>
       <c r="K11" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>134507.07</v>
       </c>
       <c r="L11" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1120892.25</v>
       </c>
       <c r="M11" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11208.922500000001</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -3136,19 +3146,19 @@
       <c r="G32"/>
       <c r="I32" s="14">
         <f>SUM(I7:I31)</f>
-        <v>4455988.5600000005</v>
+        <v>5711387.8800000008</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>477427.34571428568</v>
+        <v>611934.41571428569</v>
       </c>
       <c r="L32" s="14">
         <f>SUM(L7:L31)</f>
-        <v>3978561.2142857146</v>
+        <v>5099453.4642857146</v>
       </c>
       <c r="M32" s="36">
         <f>SUM(M7:M31)</f>
-        <v>39785.612142857142</v>
+        <v>50994.534642857143</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">

--- a/GBDS JANUARY FILES 2026/PURCHASES - JANUARY 2026.xlsx
+++ b/GBDS JANUARY FILES 2026/PURCHASES - JANUARY 2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS JANUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86AD7330-8982-4B4A-AD7C-B2207FF6FF52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E2C8E0-F371-4460-A907-CE6798B8395C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/GBDS JANUARY FILES 2026/PURCHASES - JANUARY 2026.xlsx
+++ b/GBDS JANUARY FILES 2026/PURCHASES - JANUARY 2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS JANUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E2C8E0-F371-4460-A907-CE6798B8395C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301A1DA6-B6D2-4023-B351-0E61EE5CCF71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="79">
   <si>
     <t>HOME MART ENTERPRISES</t>
   </si>
@@ -267,6 +267,9 @@
   </si>
   <si>
     <t>01/24/2026</t>
+  </si>
+  <si>
+    <t>01/27/2026</t>
   </si>
 </sst>
 </file>
@@ -2220,7 +2223,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2567,7 +2570,9 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C12" s="19"/>
+      <c r="C12" s="19" t="s">
+        <v>78</v>
+      </c>
       <c r="D12" s="20" t="s">
         <v>68</v>
       </c>
@@ -2575,22 +2580,27 @@
       <c r="F12" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G12" s="20"/>
+      <c r="G12" s="20">
+        <v>518329104</v>
+      </c>
       <c r="H12" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I12" s="21"/>
+      <c r="I12" s="21">
+        <f>1386494-56304.48</f>
+        <v>1330189.52</v>
+      </c>
       <c r="K12" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>142520.3057142857</v>
       </c>
       <c r="L12" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1187669.2142857143</v>
       </c>
       <c r="M12" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11876.692142857142</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -3146,19 +3156,19 @@
       <c r="G32"/>
       <c r="I32" s="14">
         <f>SUM(I7:I31)</f>
-        <v>5711387.8800000008</v>
+        <v>7041577.4000000004</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>611934.41571428569</v>
+        <v>754454.72142857139</v>
       </c>
       <c r="L32" s="14">
         <f>SUM(L7:L31)</f>
-        <v>5099453.4642857146</v>
+        <v>6287122.6785714291</v>
       </c>
       <c r="M32" s="36">
         <f>SUM(M7:M31)</f>
-        <v>50994.534642857143</v>
+        <v>62871.226785714287</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">

--- a/GBDS JANUARY FILES 2026/PURCHASES - JANUARY 2026.xlsx
+++ b/GBDS JANUARY FILES 2026/PURCHASES - JANUARY 2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS JANUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301A1DA6-B6D2-4023-B351-0E61EE5CCF71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9269167-F1C5-4834-A216-A1F42EA5C496}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="79">
   <si>
     <t>HOME MART ENTERPRISES</t>
   </si>
@@ -2223,7 +2223,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2612,7 +2612,9 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C13" s="19"/>
+      <c r="C13" s="19" t="s">
+        <v>78</v>
+      </c>
       <c r="D13" s="20" t="s">
         <v>68</v>
       </c>
@@ -2620,22 +2622,27 @@
       <c r="F13" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="20"/>
+      <c r="G13" s="20">
+        <v>518329423</v>
+      </c>
       <c r="H13" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I13" s="21"/>
+      <c r="I13" s="21">
+        <f>1399400-56313.36</f>
+        <v>1343086.64</v>
+      </c>
       <c r="K13" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>143902.13999999998</v>
       </c>
       <c r="L13" s="27">
         <f>I13-K13</f>
-        <v>0</v>
+        <v>1199184.5</v>
       </c>
       <c r="M13" s="33">
         <f>I13/112</f>
-        <v>0</v>
+        <v>11991.844999999999</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -3156,19 +3163,19 @@
       <c r="G32"/>
       <c r="I32" s="14">
         <f>SUM(I7:I31)</f>
-        <v>7041577.4000000004</v>
+        <v>8384664.04</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>754454.72142857139</v>
+        <v>898356.8614285714</v>
       </c>
       <c r="L32" s="14">
         <f>SUM(L7:L31)</f>
-        <v>6287122.6785714291</v>
+        <v>7486307.1785714291</v>
       </c>
       <c r="M32" s="36">
         <f>SUM(M7:M31)</f>
-        <v>62871.226785714287</v>
+        <v>74863.071785714288</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">

--- a/GBDS JANUARY FILES 2026/PURCHASES - JANUARY 2026.xlsx
+++ b/GBDS JANUARY FILES 2026/PURCHASES - JANUARY 2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS JANUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9269167-F1C5-4834-A216-A1F42EA5C496}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9DD3C2-D476-4300-AED4-FD163EA05346}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="80">
   <si>
     <t>HOME MART ENTERPRISES</t>
   </si>
@@ -270,6 +270,9 @@
   </si>
   <si>
     <t>01/27/2026</t>
+  </si>
+  <si>
+    <t>01/29/2026</t>
   </si>
 </sst>
 </file>
@@ -2223,7 +2226,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2654,7 +2657,9 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C14" s="19"/>
+      <c r="C14" s="19" t="s">
+        <v>79</v>
+      </c>
       <c r="D14" s="20" t="s">
         <v>68</v>
       </c>
@@ -2662,22 +2667,27 @@
       <c r="F14" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G14" s="20"/>
+      <c r="G14" s="20">
+        <v>518336621</v>
+      </c>
       <c r="H14" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I14" s="38"/>
+      <c r="I14" s="38">
+        <f>1404232-56464.36</f>
+        <v>1347767.64</v>
+      </c>
       <c r="K14" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>144403.67571428569</v>
       </c>
       <c r="L14" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1203363.9642857141</v>
       </c>
       <c r="M14" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12033.639642857142</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -3163,19 +3173,19 @@
       <c r="G32"/>
       <c r="I32" s="14">
         <f>SUM(I7:I31)</f>
-        <v>8384664.04</v>
+        <v>9732431.6799999997</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>898356.8614285714</v>
+        <v>1042760.5371428571</v>
       </c>
       <c r="L32" s="14">
         <f>SUM(L7:L31)</f>
-        <v>7486307.1785714291</v>
+        <v>8689671.1428571437</v>
       </c>
       <c r="M32" s="36">
         <f>SUM(M7:M31)</f>
-        <v>74863.071785714288</v>
+        <v>86896.711428571434</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">

--- a/GBDS JANUARY FILES 2026/PURCHASES - JANUARY 2026.xlsx
+++ b/GBDS JANUARY FILES 2026/PURCHASES - JANUARY 2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS JANUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9DD3C2-D476-4300-AED4-FD163EA05346}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665742FD-0AF1-4CA7-9B08-BC2712E34192}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="81">
   <si>
     <t>HOME MART ENTERPRISES</t>
   </si>
@@ -273,6 +273,9 @@
   </si>
   <si>
     <t>01/29/2026</t>
+  </si>
+  <si>
+    <t>01/30/2026</t>
   </si>
 </sst>
 </file>
@@ -2226,7 +2229,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2699,7 +2702,9 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C15" s="19"/>
+      <c r="C15" s="19" t="s">
+        <v>80</v>
+      </c>
       <c r="D15" s="20" t="s">
         <v>68</v>
       </c>
@@ -2707,22 +2712,27 @@
       <c r="F15" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G15" s="20"/>
+      <c r="G15" s="20">
+        <v>518341441</v>
+      </c>
       <c r="H15" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I15" s="21"/>
+      <c r="I15" s="21">
+        <f>1232820-49636.85</f>
+        <v>1183183.1499999999</v>
+      </c>
       <c r="K15" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>126769.6232142857</v>
       </c>
       <c r="L15" s="27">
         <f>I15-K15</f>
-        <v>0</v>
+        <v>1056413.5267857141</v>
       </c>
       <c r="M15" s="33">
         <f>I15/112</f>
-        <v>0</v>
+        <v>10564.135267857142</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -2734,7 +2744,9 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C16" s="19"/>
+      <c r="C16" s="19" t="s">
+        <v>80</v>
+      </c>
       <c r="D16" s="20" t="s">
         <v>68</v>
       </c>
@@ -2742,22 +2754,27 @@
       <c r="F16" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="20"/>
+      <c r="G16" s="20">
+        <v>518341067</v>
+      </c>
       <c r="H16" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I16" s="21"/>
+      <c r="I16" s="21">
+        <f>154728-19963.74</f>
+        <v>134764.26</v>
+      </c>
       <c r="K16" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>14439.027857142859</v>
       </c>
       <c r="L16" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>120325.23214285714</v>
       </c>
       <c r="M16" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1203.2523214285716</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -2769,7 +2786,9 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C17" s="19"/>
+      <c r="C17" s="19" t="s">
+        <v>80</v>
+      </c>
       <c r="D17" s="20" t="s">
         <v>68</v>
       </c>
@@ -2777,22 +2796,28 @@
       <c r="F17" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="20"/>
+      <c r="G17" s="20">
+        <f>518341060</f>
+        <v>518341060</v>
+      </c>
       <c r="H17" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I17" s="21"/>
+      <c r="I17" s="21">
+        <f>794772-176047.41</f>
+        <v>618724.59</v>
+      </c>
       <c r="K17" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>66291.920357142852</v>
       </c>
       <c r="L17" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>552432.66964285716</v>
       </c>
       <c r="M17" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5524.3266964285713</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -2804,7 +2829,9 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C18" s="19"/>
+      <c r="C18" s="19" t="s">
+        <v>80</v>
+      </c>
       <c r="D18" s="20" t="s">
         <v>68</v>
       </c>
@@ -2812,22 +2839,27 @@
       <c r="F18" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G18" s="20"/>
+      <c r="G18" s="20">
+        <v>518341429</v>
+      </c>
       <c r="H18" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I18" s="21"/>
+      <c r="I18" s="21">
+        <f>44822-3731.76</f>
+        <v>41090.239999999998</v>
+      </c>
       <c r="K18" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4402.5257142857135</v>
       </c>
       <c r="L18" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>36687.714285714283</v>
       </c>
       <c r="M18" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>366.87714285714281</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -3173,19 +3205,19 @@
       <c r="G32"/>
       <c r="I32" s="14">
         <f>SUM(I7:I31)</f>
-        <v>9732431.6799999997</v>
+        <v>11710193.92</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>1042760.5371428571</v>
+        <v>1254663.6342857142</v>
       </c>
       <c r="L32" s="14">
         <f>SUM(L7:L31)</f>
-        <v>8689671.1428571437</v>
+        <v>10455530.285714285</v>
       </c>
       <c r="M32" s="36">
         <f>SUM(M7:M31)</f>
-        <v>86896.711428571434</v>
+        <v>104555.30285714287</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
